--- a/MVPLT/data/潘弘林-每日权重.xlsx
+++ b/MVPLT/data/潘弘林-每日权重.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,6 +647,261 @@
         <v>0.144531918767086</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B16">
+        <v>0.1280206318792465</v>
+      </c>
+      <c r="C16">
+        <v>0.6571165714975774</v>
+      </c>
+      <c r="D16">
+        <v>0.07028657672550227</v>
+      </c>
+      <c r="E16">
+        <v>0.1445762198976737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B17">
+        <v>0.1277665749290562</v>
+      </c>
+      <c r="C17">
+        <v>0.657443536957487</v>
+      </c>
+      <c r="D17">
+        <v>0.07017352849230922</v>
+      </c>
+      <c r="E17">
+        <v>0.1446163596211477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B18">
+        <v>0.1276121130752274</v>
+      </c>
+      <c r="C18">
+        <v>0.6586027901960151</v>
+      </c>
+      <c r="D18">
+        <v>0.06893947932040159</v>
+      </c>
+      <c r="E18">
+        <v>0.1448456174083559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B19">
+        <v>0.126477577696796</v>
+      </c>
+      <c r="C19">
+        <v>0.6592030536482815</v>
+      </c>
+      <c r="D19">
+        <v>0.06933813975230499</v>
+      </c>
+      <c r="E19">
+        <v>0.1449812289026176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B20">
+        <v>0.1273958766275538</v>
+      </c>
+      <c r="C20">
+        <v>0.6580320523720856</v>
+      </c>
+      <c r="D20">
+        <v>0.0698258394031824</v>
+      </c>
+      <c r="E20">
+        <v>0.1447462315971782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B21">
+        <v>0.1291095818019708</v>
+      </c>
+      <c r="C21">
+        <v>0.656266802902975</v>
+      </c>
+      <c r="D21">
+        <v>0.0701969341502879</v>
+      </c>
+      <c r="E21">
+        <v>0.1444266811447661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B22">
+        <v>0.1279019948834055</v>
+      </c>
+      <c r="C22">
+        <v>0.6577260984464212</v>
+      </c>
+      <c r="D22">
+        <v>0.06957191564776304</v>
+      </c>
+      <c r="E22">
+        <v>0.1447999910224103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B23">
+        <v>0.1288683962852084</v>
+      </c>
+      <c r="C23">
+        <v>0.6573070263963711</v>
+      </c>
+      <c r="D23">
+        <v>0.06910564762759235</v>
+      </c>
+      <c r="E23">
+        <v>0.1447189296908282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B24">
+        <v>0.1283236288395226</v>
+      </c>
+      <c r="C24">
+        <v>0.6573932071742244</v>
+      </c>
+      <c r="D24">
+        <v>0.06958528727309861</v>
+      </c>
+      <c r="E24">
+        <v>0.1446978767131544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B25">
+        <v>0.1271021922912914</v>
+      </c>
+      <c r="C25">
+        <v>0.658284366653166</v>
+      </c>
+      <c r="D25">
+        <v>0.0697996763867251</v>
+      </c>
+      <c r="E25">
+        <v>0.1448137646688174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B26">
+        <v>0.1269628909860573</v>
+      </c>
+      <c r="C26">
+        <v>0.6582680121436016</v>
+      </c>
+      <c r="D26">
+        <v>0.0700130564982628</v>
+      </c>
+      <c r="E26">
+        <v>0.1447560403720784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B27">
+        <v>0.1281949333072012</v>
+      </c>
+      <c r="C27">
+        <v>0.6571142575901797</v>
+      </c>
+      <c r="D27">
+        <v>0.07018139926374276</v>
+      </c>
+      <c r="E27">
+        <v>0.1445094098388763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B28">
+        <v>0.1277966722184583</v>
+      </c>
+      <c r="C28">
+        <v>0.6569953168905446</v>
+      </c>
+      <c r="D28">
+        <v>0.0707051693996945</v>
+      </c>
+      <c r="E28">
+        <v>0.1445028414913026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B29">
+        <v>0.1287151999608545</v>
+      </c>
+      <c r="C29">
+        <v>0.6560527895677037</v>
+      </c>
+      <c r="D29">
+        <v>0.070916907439142</v>
+      </c>
+      <c r="E29">
+        <v>0.1443151030322998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B30">
+        <v>0.1283518128286931</v>
+      </c>
+      <c r="C30">
+        <v>0.6557825810747393</v>
+      </c>
+      <c r="D30">
+        <v>0.07113202140875202</v>
+      </c>
+      <c r="E30">
+        <v>0.1447335846878155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MVPLT/data/潘弘林-每日权重.xlsx
+++ b/MVPLT/data/潘弘林-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,19 +1260,239 @@
         <v>43111</v>
       </c>
       <c r="B44">
-        <v>0.07556133905182517</v>
+        <v>0.07555958863969105</v>
       </c>
       <c r="C44">
-        <v>0.6590606460324925</v>
+        <v>0.6590453785985584</v>
       </c>
       <c r="D44">
-        <v>0.03332526127926525</v>
+        <v>0.03332448928471819</v>
       </c>
       <c r="E44">
-        <v>0.1991889381586235</v>
+        <v>0.199207489304188</v>
       </c>
       <c r="F44">
-        <v>0.03286381547779348</v>
+        <v>0.03286305417284431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B45">
+        <v>0.07569791891536175</v>
+      </c>
+      <c r="C45">
+        <v>0.658858094179919</v>
+      </c>
+      <c r="D45">
+        <v>0.03346916035867881</v>
+      </c>
+      <c r="E45">
+        <v>0.1991286576153235</v>
+      </c>
+      <c r="F45">
+        <v>0.03284616893071679</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B46">
+        <v>0.07529594799867396</v>
+      </c>
+      <c r="C46">
+        <v>0.6590497109751923</v>
+      </c>
+      <c r="D46">
+        <v>0.03348701020094855</v>
+      </c>
+      <c r="E46">
+        <v>0.1993036443072839</v>
+      </c>
+      <c r="F46">
+        <v>0.0328636865179014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B47">
+        <v>0.07584412455606236</v>
+      </c>
+      <c r="C47">
+        <v>0.6587837778889998</v>
+      </c>
+      <c r="D47">
+        <v>0.03330310066349017</v>
+      </c>
+      <c r="E47">
+        <v>0.1992225052343185</v>
+      </c>
+      <c r="F47">
+        <v>0.03284649165712917</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B48">
+        <v>0.07561986920442174</v>
+      </c>
+      <c r="C48">
+        <v>0.6587914775449902</v>
+      </c>
+      <c r="D48">
+        <v>0.03344678117652412</v>
+      </c>
+      <c r="E48">
+        <v>0.1992883572045598</v>
+      </c>
+      <c r="F48">
+        <v>0.03285351486950399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B49">
+        <v>0.07597668433635063</v>
+      </c>
+      <c r="C49">
+        <v>0.6584238857616379</v>
+      </c>
+      <c r="D49">
+        <v>0.03347119634731479</v>
+      </c>
+      <c r="E49">
+        <v>0.1992799413026881</v>
+      </c>
+      <c r="F49">
+        <v>0.03284829225200844</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B50">
+        <v>0.07611131077809213</v>
+      </c>
+      <c r="C50">
+        <v>0.658492682574248</v>
+      </c>
+      <c r="D50">
+        <v>0.0332661504634427</v>
+      </c>
+      <c r="E50">
+        <v>0.1992846976374056</v>
+      </c>
+      <c r="F50">
+        <v>0.03284515854681151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B51">
+        <v>0.07690976612044903</v>
+      </c>
+      <c r="C51">
+        <v>0.657860624906902</v>
+      </c>
+      <c r="D51">
+        <v>0.03336752736259485</v>
+      </c>
+      <c r="E51">
+        <v>0.1990646390075735</v>
+      </c>
+      <c r="F51">
+        <v>0.0327974426024805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B52">
+        <v>0.07746025285414106</v>
+      </c>
+      <c r="C52">
+        <v>0.6573243808301567</v>
+      </c>
+      <c r="D52">
+        <v>0.03357788252546783</v>
+      </c>
+      <c r="E52">
+        <v>0.1988750932718011</v>
+      </c>
+      <c r="F52">
+        <v>0.03276239051843318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B53">
+        <v>0.0776118894846532</v>
+      </c>
+      <c r="C53">
+        <v>0.6569488331283094</v>
+      </c>
+      <c r="D53">
+        <v>0.03397058694010171</v>
+      </c>
+      <c r="E53">
+        <v>0.1987334586721818</v>
+      </c>
+      <c r="F53">
+        <v>0.03273523177475384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B54">
+        <v>0.07726643157037727</v>
+      </c>
+      <c r="C54">
+        <v>0.6572436109779363</v>
+      </c>
+      <c r="D54">
+        <v>0.03394284357645743</v>
+      </c>
+      <c r="E54">
+        <v>0.1988040514810831</v>
+      </c>
+      <c r="F54">
+        <v>0.03274306239414582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B55">
+        <v>0.07744182689383176</v>
+      </c>
+      <c r="C55">
+        <v>0.6570214183194375</v>
+      </c>
+      <c r="D55">
+        <v>0.03411624641009028</v>
+      </c>
+      <c r="E55">
+        <v>0.1986953492578597</v>
+      </c>
+      <c r="F55">
+        <v>0.0327251591187806</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/潘弘林-每日权重.xlsx
+++ b/MVPLT/data/潘弘林-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,19 +1480,599 @@
         <v>43126</v>
       </c>
       <c r="B55">
-        <v>0.07744182689383176</v>
+        <v>0.07744001414062622</v>
       </c>
       <c r="C55">
-        <v>0.6570214183194375</v>
+        <v>0.6570060388051628</v>
       </c>
       <c r="D55">
-        <v>0.03411624641009028</v>
+        <v>0.03411544781923155</v>
       </c>
       <c r="E55">
-        <v>0.1986953492578597</v>
+        <v>0.1987141061445773</v>
       </c>
       <c r="F55">
-        <v>0.0327251591187806</v>
+        <v>0.03272439309040196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B56">
+        <v>0.07764371958003811</v>
+      </c>
+      <c r="C56">
+        <v>0.6531762080605266</v>
+      </c>
+      <c r="D56">
+        <v>0.03694672823461706</v>
+      </c>
+      <c r="E56">
+        <v>0.2</v>
+      </c>
+      <c r="F56">
+        <v>0.03223334412481812</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B57">
+        <v>0.07710278030396571</v>
+      </c>
+      <c r="C57">
+        <v>0.6537744954009991</v>
+      </c>
+      <c r="D57">
+        <v>0.03666128991064845</v>
+      </c>
+      <c r="E57">
+        <v>0.2001996599471902</v>
+      </c>
+      <c r="F57">
+        <v>0.03226177443719647</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B58">
+        <v>0.07696772551844715</v>
+      </c>
+      <c r="C58">
+        <v>0.6539519832923131</v>
+      </c>
+      <c r="D58">
+        <v>0.03664823975929223</v>
+      </c>
+      <c r="E58">
+        <v>0.2001776141097381</v>
+      </c>
+      <c r="F58">
+        <v>0.03225443732020937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B59">
+        <v>0.07596152515368065</v>
+      </c>
+      <c r="C59">
+        <v>0.6545167593868446</v>
+      </c>
+      <c r="D59">
+        <v>0.03696268032308098</v>
+      </c>
+      <c r="E59">
+        <v>0.2002902405519456</v>
+      </c>
+      <c r="F59">
+        <v>0.03226879458444803</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B60">
+        <v>0.07634377512720666</v>
+      </c>
+      <c r="C60">
+        <v>0.6544858490780678</v>
+      </c>
+      <c r="D60">
+        <v>0.0366566163465946</v>
+      </c>
+      <c r="E60">
+        <v>0.2002545118883766</v>
+      </c>
+      <c r="F60">
+        <v>0.03225924755975428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B61">
+        <v>0.07637593966911324</v>
+      </c>
+      <c r="C61">
+        <v>0.6547294684430147</v>
+      </c>
+      <c r="D61">
+        <v>0.03627092459141739</v>
+      </c>
+      <c r="E61">
+        <v>0.2003587854054337</v>
+      </c>
+      <c r="F61">
+        <v>0.03226488189102084</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B62">
+        <v>0.0739353004518376</v>
+      </c>
+      <c r="C62">
+        <v>0.656886138183978</v>
+      </c>
+      <c r="D62">
+        <v>0.03601360634251621</v>
+      </c>
+      <c r="E62">
+        <v>0.2008282316903902</v>
+      </c>
+      <c r="F62">
+        <v>0.03233672333127782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B63">
+        <v>0.07274303409790307</v>
+      </c>
+      <c r="C63">
+        <v>0.6582201171760909</v>
+      </c>
+      <c r="D63">
+        <v>0.0354680528616752</v>
+      </c>
+      <c r="E63">
+        <v>0.2011792959813594</v>
+      </c>
+      <c r="F63">
+        <v>0.03238949988297144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B64">
+        <v>0.07242634116396446</v>
+      </c>
+      <c r="C64">
+        <v>0.6586098113682674</v>
+      </c>
+      <c r="D64">
+        <v>0.03526420341019839</v>
+      </c>
+      <c r="E64">
+        <v>0.2012952594962159</v>
+      </c>
+      <c r="F64">
+        <v>0.0324043845613539</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B65">
+        <v>0.06969505910884841</v>
+      </c>
+      <c r="C65">
+        <v>0.6611409896416827</v>
+      </c>
+      <c r="D65">
+        <v>0.03458408985477685</v>
+      </c>
+      <c r="E65">
+        <v>0.2020567376942481</v>
+      </c>
+      <c r="F65">
+        <v>0.03252312370044385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B66">
+        <v>0.07069773163598699</v>
+      </c>
+      <c r="C66">
+        <v>0.6604127748312464</v>
+      </c>
+      <c r="D66">
+        <v>0.0346436560191981</v>
+      </c>
+      <c r="E66">
+        <v>0.2017787438011473</v>
+      </c>
+      <c r="F66">
+        <v>0.03246709371242125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B67">
+        <v>0.07136706055202896</v>
+      </c>
+      <c r="C67">
+        <v>0.659924145608575</v>
+      </c>
+      <c r="D67">
+        <v>0.03466251983596582</v>
+      </c>
+      <c r="E67">
+        <v>0.2016100945743101</v>
+      </c>
+      <c r="F67">
+        <v>0.03243617942911997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B68">
+        <v>0.07175888927072871</v>
+      </c>
+      <c r="C68">
+        <v>0.6592451804775374</v>
+      </c>
+      <c r="D68">
+        <v>0.03521718869896509</v>
+      </c>
+      <c r="E68">
+        <v>0.201383020573897</v>
+      </c>
+      <c r="F68">
+        <v>0.03239572097887175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B69">
+        <v>0.07307152782460907</v>
+      </c>
+      <c r="C69">
+        <v>0.6577965000819419</v>
+      </c>
+      <c r="D69">
+        <v>0.03589609072309513</v>
+      </c>
+      <c r="E69">
+        <v>0.2009408764121408</v>
+      </c>
+      <c r="F69">
+        <v>0.03229500495821309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B70">
+        <v>0.07333146856110459</v>
+      </c>
+      <c r="C70">
+        <v>0.6575040552717654</v>
+      </c>
+      <c r="D70">
+        <v>0.03608462382294169</v>
+      </c>
+      <c r="E70">
+        <v>0.2008097261812775</v>
+      </c>
+      <c r="F70">
+        <v>0.03227012616291082</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B71">
+        <v>0.07420348648316651</v>
+      </c>
+      <c r="C71">
+        <v>0.6570289364800639</v>
+      </c>
+      <c r="D71">
+        <v>0.03617467309179434</v>
+      </c>
+      <c r="E71">
+        <v>0.2003997370393189</v>
+      </c>
+      <c r="F71">
+        <v>0.03219316690565656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B72">
+        <v>0.07338924844992849</v>
+      </c>
+      <c r="C72">
+        <v>0.65793388641855</v>
+      </c>
+      <c r="D72">
+        <v>0.03591326606434192</v>
+      </c>
+      <c r="E72">
+        <v>0.2005500336858766</v>
+      </c>
+      <c r="F72">
+        <v>0.03221356538130306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B73">
+        <v>0.07299785845868595</v>
+      </c>
+      <c r="C73">
+        <v>0.6586710908455985</v>
+      </c>
+      <c r="D73">
+        <v>0.03540108495628998</v>
+      </c>
+      <c r="E73">
+        <v>0.2006966144235167</v>
+      </c>
+      <c r="F73">
+        <v>0.03223335131590886</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B74">
+        <v>0.07351003173972963</v>
+      </c>
+      <c r="C74">
+        <v>0.6584573362006554</v>
+      </c>
+      <c r="D74">
+        <v>0.03519814118083629</v>
+      </c>
+      <c r="E74">
+        <v>0.2006176430757813</v>
+      </c>
+      <c r="F74">
+        <v>0.03221684780299742</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B75">
+        <v>0.07300547709411766</v>
+      </c>
+      <c r="C75">
+        <v>0.6587454779848939</v>
+      </c>
+      <c r="D75">
+        <v>0.03526099736241828</v>
+      </c>
+      <c r="E75">
+        <v>0.2007532245755774</v>
+      </c>
+      <c r="F75">
+        <v>0.03223482298299267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B76">
+        <v>0.07300801100322535</v>
+      </c>
+      <c r="C76">
+        <v>0.6583517573689459</v>
+      </c>
+      <c r="D76">
+        <v>0.03572211260020975</v>
+      </c>
+      <c r="E76">
+        <v>0.200702543866973</v>
+      </c>
+      <c r="F76">
+        <v>0.03221557516064597</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B77">
+        <v>0.07383198457558635</v>
+      </c>
+      <c r="C77">
+        <v>0.6577493988929191</v>
+      </c>
+      <c r="D77">
+        <v>0.03573728363158359</v>
+      </c>
+      <c r="E77">
+        <v>0.2005017092746786</v>
+      </c>
+      <c r="F77">
+        <v>0.03217962362523225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B78">
+        <v>0.07330695065984094</v>
+      </c>
+      <c r="C78">
+        <v>0.6585636527691757</v>
+      </c>
+      <c r="D78">
+        <v>0.03523104232762535</v>
+      </c>
+      <c r="E78">
+        <v>0.2006919276379787</v>
+      </c>
+      <c r="F78">
+        <v>0.03220642660537926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B79">
+        <v>0.07395485903120497</v>
+      </c>
+      <c r="C79">
+        <v>0.6583613704459351</v>
+      </c>
+      <c r="D79">
+        <v>0.03490003069571171</v>
+      </c>
+      <c r="E79">
+        <v>0.2005964299836902</v>
+      </c>
+      <c r="F79">
+        <v>0.03218730984345797</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B80">
+        <v>0.07450886023626485</v>
+      </c>
+      <c r="C80">
+        <v>0.6576129108968269</v>
+      </c>
+      <c r="D80">
+        <v>0.03538617548385639</v>
+      </c>
+      <c r="E80">
+        <v>0.2003483662331276</v>
+      </c>
+      <c r="F80">
+        <v>0.03214368714992435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B81">
+        <v>0.07498559997073456</v>
+      </c>
+      <c r="C81">
+        <v>0.6574805266361436</v>
+      </c>
+      <c r="D81">
+        <v>0.03513081403190235</v>
+      </c>
+      <c r="E81">
+        <v>0.2002811901518065</v>
+      </c>
+      <c r="F81">
+        <v>0.03212186920941298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B82">
+        <v>0.07442690785174713</v>
+      </c>
+      <c r="C82">
+        <v>0.6578803590048959</v>
+      </c>
+      <c r="D82">
+        <v>0.03507923521122152</v>
+      </c>
+      <c r="E82">
+        <v>0.2004657816704676</v>
+      </c>
+      <c r="F82">
+        <v>0.03214771626166791</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B83">
+        <v>0.07400681332405748</v>
+      </c>
+      <c r="C83">
+        <v>0.6581153495191874</v>
+      </c>
+      <c r="D83">
+        <v>0.03517358198010417</v>
+      </c>
+      <c r="E83">
+        <v>0.2005471978827157</v>
+      </c>
+      <c r="F83">
+        <v>0.03215705729393522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B84">
+        <v>0.07425566380309633</v>
+      </c>
+      <c r="C84">
+        <v>0.6579730650977278</v>
+      </c>
+      <c r="D84">
+        <v>0.0351378245799769</v>
+      </c>
+      <c r="E84">
+        <v>0.200489380043728</v>
+      </c>
+      <c r="F84">
+        <v>0.032144066475471</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/潘弘林-每日权重.xlsx
+++ b/MVPLT/data/潘弘林-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,19 +1560,19 @@
         <v>43132</v>
       </c>
       <c r="B59">
-        <v>0.07596152515368065</v>
+        <v>0.07595662309634461</v>
       </c>
       <c r="C59">
-        <v>0.6545167593868446</v>
+        <v>0.6544745211790753</v>
       </c>
       <c r="D59">
-        <v>0.03696268032308098</v>
+        <v>0.03696029499474705</v>
       </c>
       <c r="E59">
-        <v>0.2002902405519456</v>
+        <v>0.2002773151368615</v>
       </c>
       <c r="F59">
-        <v>0.03226879458444803</v>
+        <v>0.03233124559297153</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>43133</v>
       </c>
       <c r="B60">
-        <v>0.07634377512720666</v>
+        <v>0.07633884985949457</v>
       </c>
       <c r="C60">
-        <v>0.6544858490780678</v>
+        <v>0.6544436253602191</v>
       </c>
       <c r="D60">
-        <v>0.0366566163465946</v>
+        <v>0.03665425146945006</v>
       </c>
       <c r="E60">
-        <v>0.2002545118883766</v>
+        <v>0.2002415926021616</v>
       </c>
       <c r="F60">
-        <v>0.03225924755975428</v>
+        <v>0.03232168070867474</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1600,19 +1600,19 @@
         <v>43136</v>
       </c>
       <c r="B61">
-        <v>0.07637593966911324</v>
+        <v>0.07637101146578357</v>
       </c>
       <c r="C61">
-        <v>0.6547294684430147</v>
+        <v>0.6546872216312518</v>
       </c>
       <c r="D61">
-        <v>0.03627092459141739</v>
+        <v>0.03626858418824701</v>
       </c>
       <c r="E61">
-        <v>0.2003587854054337</v>
+        <v>0.2003458571345981</v>
       </c>
       <c r="F61">
-        <v>0.03226488189102084</v>
+        <v>0.0323273255801195</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1620,19 +1620,19 @@
         <v>43137</v>
       </c>
       <c r="B62">
-        <v>0.0739353004518376</v>
+        <v>0.07393051911035319</v>
       </c>
       <c r="C62">
-        <v>0.656886138183978</v>
+        <v>0.6568436578407071</v>
       </c>
       <c r="D62">
-        <v>0.03601360634251621</v>
+        <v>0.03601127736909004</v>
       </c>
       <c r="E62">
-        <v>0.2008282316903902</v>
+        <v>0.2008152442764005</v>
       </c>
       <c r="F62">
-        <v>0.03233672333127782</v>
+        <v>0.03239930140344916</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1640,19 +1640,19 @@
         <v>43138</v>
       </c>
       <c r="B63">
-        <v>0.07274303409790307</v>
+        <v>0.07273832218214746</v>
       </c>
       <c r="C63">
-        <v>0.6582201171760909</v>
+        <v>0.658177481097197</v>
       </c>
       <c r="D63">
-        <v>0.0354680528616752</v>
+        <v>0.03546575542551279</v>
       </c>
       <c r="E63">
-        <v>0.2011792959813594</v>
+        <v>0.2011662646319499</v>
       </c>
       <c r="F63">
-        <v>0.03238949988297144</v>
+        <v>0.03245217666319292</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1660,19 +1660,19 @@
         <v>43139</v>
       </c>
       <c r="B64">
-        <v>0.07242634116396446</v>
+        <v>0.07242164760612528</v>
       </c>
       <c r="C64">
-        <v>0.6586098113682674</v>
+        <v>0.6585671304431587</v>
       </c>
       <c r="D64">
-        <v>0.03526420341019839</v>
+        <v>0.03526191812868757</v>
       </c>
       <c r="E64">
-        <v>0.2012952594962159</v>
+        <v>0.2012822146436385</v>
       </c>
       <c r="F64">
-        <v>0.0324043845613539</v>
+        <v>0.03246708917838997</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1680,19 +1680,19 @@
         <v>43140</v>
       </c>
       <c r="B65">
-        <v>0.06969505910884841</v>
+        <v>0.06969052600165261</v>
       </c>
       <c r="C65">
-        <v>0.6611409896416827</v>
+        <v>0.6610979876984188</v>
       </c>
       <c r="D65">
-        <v>0.03458408985477685</v>
+        <v>0.03458184043582829</v>
       </c>
       <c r="E65">
-        <v>0.2020567376942481</v>
+        <v>0.2020435955165484</v>
       </c>
       <c r="F65">
-        <v>0.03252312370044385</v>
+        <v>0.03258605034755201</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1700,19 +1700,19 @@
         <v>43143</v>
       </c>
       <c r="B66">
-        <v>0.07069773163598699</v>
+        <v>0.07069314123430442</v>
       </c>
       <c r="C66">
-        <v>0.6604127748312464</v>
+        <v>0.6603698942487636</v>
       </c>
       <c r="D66">
-        <v>0.0346436560191981</v>
+        <v>0.03464140660760878</v>
       </c>
       <c r="E66">
-        <v>0.2017787438011473</v>
+        <v>0.2017656423131134</v>
       </c>
       <c r="F66">
-        <v>0.03246709371242125</v>
+        <v>0.03252991559620986</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1720,19 +1720,19 @@
         <v>43144</v>
       </c>
       <c r="B67">
-        <v>0.07136706055202896</v>
+        <v>0.07136243110278946</v>
       </c>
       <c r="C67">
-        <v>0.659924145608575</v>
+        <v>0.6598813375496417</v>
       </c>
       <c r="D67">
-        <v>0.03466251983596582</v>
+        <v>0.03466027134240517</v>
       </c>
       <c r="E67">
-        <v>0.2016100945743101</v>
+        <v>0.2015970165003109</v>
       </c>
       <c r="F67">
-        <v>0.03243617942911997</v>
+        <v>0.03249894350485266</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1740,19 +1740,19 @@
         <v>43145</v>
       </c>
       <c r="B68">
-        <v>0.07175888927072871</v>
+        <v>0.07175424021003893</v>
       </c>
       <c r="C68">
-        <v>0.6592451804775374</v>
+        <v>0.6592024697989771</v>
       </c>
       <c r="D68">
-        <v>0.03521718869896509</v>
+        <v>0.03521490707435734</v>
       </c>
       <c r="E68">
-        <v>0.201383020573897</v>
+        <v>0.2013699735229454</v>
       </c>
       <c r="F68">
-        <v>0.03239572097887175</v>
+        <v>0.03245840939368123</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1760,19 +1760,19 @@
         <v>43153</v>
       </c>
       <c r="B69">
-        <v>0.07307152782460907</v>
+        <v>0.07306680843872747</v>
       </c>
       <c r="C69">
-        <v>0.6577965000819419</v>
+        <v>0.6577540157435425</v>
       </c>
       <c r="D69">
-        <v>0.03589609072309513</v>
+        <v>0.0358937723439835</v>
       </c>
       <c r="E69">
-        <v>0.2009408764121408</v>
+        <v>0.2009278984771856</v>
       </c>
       <c r="F69">
-        <v>0.03229500495821309</v>
+        <v>0.03235750499656093</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1780,19 +1780,19 @@
         <v>43154</v>
       </c>
       <c r="B70">
-        <v>0.07333146856110459</v>
+        <v>0.07332673603505867</v>
       </c>
       <c r="C70">
-        <v>0.6575040552717654</v>
+        <v>0.6574616225327526</v>
       </c>
       <c r="D70">
-        <v>0.03608462382294169</v>
+        <v>0.03608229506251386</v>
       </c>
       <c r="E70">
-        <v>0.2008097261812775</v>
+        <v>0.200796766707288</v>
       </c>
       <c r="F70">
-        <v>0.03227012616291082</v>
+        <v>0.0323325796623869</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1800,19 +1800,19 @@
         <v>43157</v>
       </c>
       <c r="B71">
-        <v>0.07420348648316651</v>
+        <v>0.07419870910031399</v>
       </c>
       <c r="C71">
-        <v>0.6570289364800639</v>
+        <v>0.6569866355192397</v>
       </c>
       <c r="D71">
-        <v>0.03617467309179434</v>
+        <v>0.0361723440871732</v>
       </c>
       <c r="E71">
-        <v>0.2003997370393189</v>
+        <v>0.2003868348656778</v>
       </c>
       <c r="F71">
-        <v>0.03219316690565656</v>
+        <v>0.03225547642759536</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1820,19 +1820,19 @@
         <v>43158</v>
       </c>
       <c r="B72">
-        <v>0.07338924844992849</v>
+        <v>0.07338452049583054</v>
       </c>
       <c r="C72">
-        <v>0.65793388641855</v>
+        <v>0.6578915003568289</v>
       </c>
       <c r="D72">
-        <v>0.03591326606434192</v>
+        <v>0.03591095242471424</v>
       </c>
       <c r="E72">
-        <v>0.2005500336858766</v>
+        <v>0.2005371136550324</v>
       </c>
       <c r="F72">
-        <v>0.03221356538130306</v>
+        <v>0.03227591306759398</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1840,19 +1840,19 @@
         <v>43159</v>
       </c>
       <c r="B73">
-        <v>0.07299785845868595</v>
+        <v>0.07299315283080825</v>
       </c>
       <c r="C73">
-        <v>0.6586710908455985</v>
+        <v>0.6586286312294842</v>
       </c>
       <c r="D73">
-        <v>0.03540108495628998</v>
+        <v>0.03539880291218912</v>
       </c>
       <c r="E73">
-        <v>0.2006966144235167</v>
+        <v>0.2006836770085879</v>
       </c>
       <c r="F73">
-        <v>0.03223335131590886</v>
+        <v>0.03229573601893047</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1860,19 +1860,19 @@
         <v>43160</v>
       </c>
       <c r="B74">
-        <v>0.07351003173972963</v>
+        <v>0.07350529552189253</v>
       </c>
       <c r="C74">
-        <v>0.6584573362006554</v>
+        <v>0.658414912094627</v>
       </c>
       <c r="D74">
-        <v>0.03519814118083629</v>
+        <v>0.0351958733806443</v>
       </c>
       <c r="E74">
-        <v>0.2006176430757813</v>
+        <v>0.200604717372485</v>
       </c>
       <c r="F74">
-        <v>0.03221684780299742</v>
+        <v>0.03227920163035115</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1880,19 +1880,19 @@
         <v>43161</v>
       </c>
       <c r="B75">
-        <v>0.07300547709411766</v>
+        <v>0.07300077076027149</v>
       </c>
       <c r="C75">
-        <v>0.6587454779848939</v>
+        <v>0.6587030116349371</v>
       </c>
       <c r="D75">
-        <v>0.03526099736241828</v>
+        <v>0.03525872424494899</v>
       </c>
       <c r="E75">
-        <v>0.2007532245755774</v>
+        <v>0.2007402829206064</v>
       </c>
       <c r="F75">
-        <v>0.03223482298299267</v>
+        <v>0.03229721043923595</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1900,19 +1900,19 @@
         <v>43164</v>
       </c>
       <c r="B76">
-        <v>0.07300801100322535</v>
+        <v>0.0730033073161577</v>
       </c>
       <c r="C76">
-        <v>0.6583517573689459</v>
+        <v>0.6583093417407903</v>
       </c>
       <c r="D76">
-        <v>0.03572211260020975</v>
+        <v>0.03571981113168927</v>
       </c>
       <c r="E76">
-        <v>0.200702543866973</v>
+        <v>0.2006896132043367</v>
       </c>
       <c r="F76">
-        <v>0.03221557516064597</v>
+        <v>0.03227792660702598</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1920,19 +1920,19 @@
         <v>43165</v>
       </c>
       <c r="B77">
-        <v>0.07383198457558635</v>
+        <v>0.07382723311043676</v>
       </c>
       <c r="C77">
-        <v>0.6577493988929191</v>
+        <v>0.6577070693610237</v>
       </c>
       <c r="D77">
-        <v>0.03573728363158359</v>
+        <v>0.03573498375492862</v>
       </c>
       <c r="E77">
-        <v>0.2005017092746786</v>
+        <v>0.2004888059660445</v>
       </c>
       <c r="F77">
-        <v>0.03217962362523225</v>
+        <v>0.03224190780756629</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1940,19 +1940,19 @@
         <v>43166</v>
       </c>
       <c r="B78">
-        <v>0.07330695065984094</v>
+        <v>0.07330222905412086</v>
       </c>
       <c r="C78">
-        <v>0.6585636527691757</v>
+        <v>0.6585212355374949</v>
       </c>
       <c r="D78">
-        <v>0.03523104232762535</v>
+        <v>0.03522877314183216</v>
       </c>
       <c r="E78">
-        <v>0.2006919276379787</v>
+        <v>0.2006790013309235</v>
       </c>
       <c r="F78">
-        <v>0.03220642660537926</v>
+        <v>0.03226876093562858</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1960,19 +1960,19 @@
         <v>43167</v>
       </c>
       <c r="B79">
-        <v>0.07395485903120497</v>
+        <v>0.07395009852173681</v>
       </c>
       <c r="C79">
-        <v>0.6583613704459351</v>
+        <v>0.6583189914112303</v>
       </c>
       <c r="D79">
-        <v>0.03490003069571171</v>
+        <v>0.03489778416412823</v>
       </c>
       <c r="E79">
-        <v>0.2005964299836902</v>
+        <v>0.2005835174960359</v>
       </c>
       <c r="F79">
-        <v>0.03218730984345797</v>
+        <v>0.03224960840686864</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1980,19 +1980,19 @@
         <v>43168</v>
       </c>
       <c r="B80">
-        <v>0.07450886023626485</v>
+        <v>0.07450407056519356</v>
       </c>
       <c r="C80">
-        <v>0.6576129108968269</v>
+        <v>0.6575706374071313</v>
       </c>
       <c r="D80">
-        <v>0.03538617548385639</v>
+        <v>0.03538390074578496</v>
       </c>
       <c r="E80">
-        <v>0.2003483662331276</v>
+        <v>0.200335487190677</v>
       </c>
       <c r="F80">
-        <v>0.03214368714992435</v>
+        <v>0.03220590409121322</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2000,19 +2000,19 @@
         <v>43171</v>
       </c>
       <c r="B81">
-        <v>0.07498559997073456</v>
+        <v>0.07498078292492989</v>
       </c>
       <c r="C81">
-        <v>0.6574805266361436</v>
+        <v>0.6574382903425923</v>
       </c>
       <c r="D81">
-        <v>0.03513081403190235</v>
+        <v>0.03512855724205986</v>
       </c>
       <c r="E81">
-        <v>0.2002811901518065</v>
+        <v>0.2002683241659752</v>
       </c>
       <c r="F81">
-        <v>0.03212186920941298</v>
+        <v>0.03218404532444272</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2020,19 +2020,19 @@
         <v>43172</v>
       </c>
       <c r="B82">
-        <v>0.07442690785174713</v>
+        <v>0.07442212284916924</v>
       </c>
       <c r="C82">
-        <v>0.6578803590048959</v>
+        <v>0.6578380630221037</v>
       </c>
       <c r="D82">
-        <v>0.03507923521122152</v>
+        <v>0.03507697992162585</v>
       </c>
       <c r="E82">
-        <v>0.2004657816704676</v>
+        <v>0.2004528934649817</v>
       </c>
       <c r="F82">
-        <v>0.03214771626166791</v>
+        <v>0.03220994074211968</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2040,19 +2040,19 @@
         <v>43173</v>
       </c>
       <c r="B83">
-        <v>0.07400681332405748</v>
+        <v>0.07400205394748016</v>
       </c>
       <c r="C83">
-        <v>0.6581153495191874</v>
+        <v>0.6580730261351773</v>
       </c>
       <c r="D83">
-        <v>0.03517358198010417</v>
+        <v>0.03517131996780155</v>
       </c>
       <c r="E83">
-        <v>0.2005471978827157</v>
+        <v>0.2005343006967219</v>
       </c>
       <c r="F83">
-        <v>0.03215705729393522</v>
+        <v>0.032219299252819</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2060,19 +2060,299 @@
         <v>43174</v>
       </c>
       <c r="B84">
-        <v>0.07425566380309633</v>
+        <v>0.07425089035198565</v>
       </c>
       <c r="C84">
-        <v>0.6579730650977278</v>
+        <v>0.6579307679570449</v>
       </c>
       <c r="D84">
-        <v>0.0351378245799769</v>
+        <v>0.03513556578005272</v>
       </c>
       <c r="E84">
-        <v>0.200489380043728</v>
+        <v>0.2004764917843706</v>
       </c>
       <c r="F84">
-        <v>0.032144066475471</v>
+        <v>0.03220628412654616</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B85">
+        <v>0.05608955364472486</v>
+      </c>
+      <c r="C85">
+        <v>0.7010173933289425</v>
+      </c>
+      <c r="D85">
+        <v>0.01535428418417162</v>
+      </c>
+      <c r="E85">
+        <v>0.2</v>
+      </c>
+      <c r="F85">
+        <v>0.02753876884216088</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B86">
+        <v>0.0562714374413788</v>
+      </c>
+      <c r="C86">
+        <v>0.700960298814239</v>
+      </c>
+      <c r="D86">
+        <v>0.0152360578159022</v>
+      </c>
+      <c r="E86">
+        <v>0.2000025875434506</v>
+      </c>
+      <c r="F86">
+        <v>0.02752961838502925</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B87">
+        <v>0.05631620684172167</v>
+      </c>
+      <c r="C87">
+        <v>0.7008845584954285</v>
+      </c>
+      <c r="D87">
+        <v>0.01539439940680875</v>
+      </c>
+      <c r="E87">
+        <v>0.1998935119339753</v>
+      </c>
+      <c r="F87">
+        <v>0.02751132332206578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B88">
+        <v>0.05601973291453292</v>
+      </c>
+      <c r="C88">
+        <v>0.7009954800391492</v>
+      </c>
+      <c r="D88">
+        <v>0.01564183665321117</v>
+      </c>
+      <c r="E88">
+        <v>0.1998419851717853</v>
+      </c>
+      <c r="F88">
+        <v>0.0275009652213214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B89">
+        <v>0.05553549227488387</v>
+      </c>
+      <c r="C89">
+        <v>0.7015713992795368</v>
+      </c>
+      <c r="D89">
+        <v>0.01553284163187222</v>
+      </c>
+      <c r="E89">
+        <v>0.1998600366729167</v>
+      </c>
+      <c r="F89">
+        <v>0.02750023014079045</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B90">
+        <v>0.05362645675909633</v>
+      </c>
+      <c r="C90">
+        <v>0.7032331893033882</v>
+      </c>
+      <c r="D90">
+        <v>0.01570524378624138</v>
+      </c>
+      <c r="E90">
+        <v>0.1999287068782906</v>
+      </c>
+      <c r="F90">
+        <v>0.02750640327298334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B91">
+        <v>0.05362032955926171</v>
+      </c>
+      <c r="C91">
+        <v>0.7033272970653192</v>
+      </c>
+      <c r="D91">
+        <v>0.01564078232479819</v>
+      </c>
+      <c r="E91">
+        <v>0.1999164755006818</v>
+      </c>
+      <c r="F91">
+        <v>0.02749511554993904</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B92">
+        <v>0.05424857048029621</v>
+      </c>
+      <c r="C92">
+        <v>0.7027925051826495</v>
+      </c>
+      <c r="D92">
+        <v>0.01562190279182511</v>
+      </c>
+      <c r="E92">
+        <v>0.1998538650547217</v>
+      </c>
+      <c r="F92">
+        <v>0.02748315649050738</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B93">
+        <v>0.05341901644733282</v>
+      </c>
+      <c r="C93">
+        <v>0.7035319228613742</v>
+      </c>
+      <c r="D93">
+        <v>0.01552926102935639</v>
+      </c>
+      <c r="E93">
+        <v>0.2000175411368964</v>
+      </c>
+      <c r="F93">
+        <v>0.02750225852504022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B94">
+        <v>0.05404340214114709</v>
+      </c>
+      <c r="C94">
+        <v>0.702989493337847</v>
+      </c>
+      <c r="D94">
+        <v>0.01561689717652974</v>
+      </c>
+      <c r="E94">
+        <v>0.1998714403265214</v>
+      </c>
+      <c r="F94">
+        <v>0.02747876701795481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B95">
+        <v>0.05424555351070882</v>
+      </c>
+      <c r="C95">
+        <v>0.7029020046741814</v>
+      </c>
+      <c r="D95">
+        <v>0.01560791120569105</v>
+      </c>
+      <c r="E95">
+        <v>0.1997815748884403</v>
+      </c>
+      <c r="F95">
+        <v>0.02746295572097851</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B96">
+        <v>0.05413241519056807</v>
+      </c>
+      <c r="C96">
+        <v>0.7032647495364331</v>
+      </c>
+      <c r="D96">
+        <v>0.0153366594682326</v>
+      </c>
+      <c r="E96">
+        <v>0.1998091526259599</v>
+      </c>
+      <c r="F96">
+        <v>0.02745702317880626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B97">
+        <v>0.05373412474724036</v>
+      </c>
+      <c r="C97">
+        <v>0.7035849738186727</v>
+      </c>
+      <c r="D97">
+        <v>0.01539997002959579</v>
+      </c>
+      <c r="E97">
+        <v>0.1998249751021985</v>
+      </c>
+      <c r="F97">
+        <v>0.0274559563022927</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B98">
+        <v>0.05353891777940645</v>
+      </c>
+      <c r="C98">
+        <v>0.7038808072092</v>
+      </c>
+      <c r="D98">
+        <v>0.0153544480548883</v>
+      </c>
+      <c r="E98">
+        <v>0.1997793920524177</v>
+      </c>
+      <c r="F98">
+        <v>0.02744643490408753</v>
       </c>
     </row>
   </sheetData>
